--- a/Lab01/Docs/Lab01_ReviewReport.xlsx
+++ b/Lab01/Docs/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andrada\UBB INFO\An3Sem2\VVSS\VVSS-LAA\VVSS-LAA\Lab01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E7F1E4-E344-4F16-8962-5B58694CDDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23942ABE-3DFB-4D40-BCBC-6DC482459F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="2964" windowWidth="17280" windowHeight="9960" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t xml:space="preserve">rename "log" logger </t>
   </si>
   <si>
-    <t>trebuia numit logger</t>
-  </si>
-  <si>
     <t>Main/27</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>not nest more than 3 if/for/while</t>
   </si>
   <si>
-    <t>avem while,for,if,if, dar ne gandeam ca e o problema</t>
-  </si>
-  <si>
     <t>NewEditControll/79</t>
   </si>
   <si>
@@ -289,6 +283,12 @@
   </si>
   <si>
     <t>nu se  valideaza nicaieri datele de intrare</t>
+  </si>
+  <si>
+    <t>trebuia numit LOGGER</t>
+  </si>
+  <si>
+    <t>avem while,for,if,if, dar nu ne gandeam ca e o problema</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1027,7 +1027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1689,13 +1689,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1704,13 +1704,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1890,8 +1890,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2023,16 +2023,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2041,16 +2041,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2059,14 +2059,14 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2075,14 +2075,14 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2091,14 +2091,14 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
